--- a/data-migration/xlsx_1900-/1914_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1914_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E2B074-B462-44A7-A152-8EB34142E99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F45525C-2E84-4BE6-9AA9-D17949B4F27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="1365">
   <si>
     <t>Sommer</t>
   </si>
@@ -4109,6 +4109,12 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>vakant</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4452,19 +4458,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E160" workbookViewId="0">
-      <selection activeCell="H160" sqref="H160"/>
+    <sheetView tabSelected="1" topLeftCell="E175" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1914</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1914</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1914</v>
       </c>
@@ -4542,7 +4548,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1914</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1914</v>
       </c>
@@ -4594,7 +4600,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1914</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1914</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1914</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1914</v>
       </c>
@@ -4698,7 +4704,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1914</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1914</v>
       </c>
@@ -4750,7 +4756,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1914</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1914</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1914</v>
       </c>
@@ -4828,7 +4834,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1914</v>
       </c>
@@ -4854,7 +4860,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1914</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1914</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1914</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1914</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1914</v>
       </c>
@@ -4990,7 +4996,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1914</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1914</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1914</v>
       </c>
@@ -5071,7 +5077,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1914</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1914</v>
       </c>
@@ -5123,7 +5129,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1914</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1914</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1914</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1914</v>
       </c>
@@ -5227,7 +5233,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1914</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1914</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1914</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1914</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1914</v>
       </c>
@@ -5357,7 +5363,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1914</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1914</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1914</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1914</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1914</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1914</v>
       </c>
@@ -5510,7 +5516,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1914</v>
       </c>
@@ -5536,7 +5542,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1914</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1914</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1914</v>
       </c>
@@ -5614,7 +5620,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1914</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1914</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1914</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1914</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1914</v>
       </c>
@@ -5744,7 +5750,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1914</v>
       </c>
@@ -5770,7 +5776,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1914</v>
       </c>
@@ -5796,7 +5802,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1914</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1914</v>
       </c>
@@ -5848,7 +5854,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1914</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1914</v>
       </c>
@@ -5903,7 +5909,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1914</v>
       </c>
@@ -5932,7 +5938,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1914</v>
       </c>
@@ -5958,7 +5964,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1914</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1914</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1914</v>
       </c>
@@ -6036,7 +6042,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1914</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1914</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1914</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1914</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1914</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1914</v>
       </c>
@@ -6192,7 +6198,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1914</v>
       </c>
@@ -6218,7 +6224,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1914</v>
       </c>
@@ -6244,7 +6250,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1914</v>
       </c>
@@ -6270,7 +6276,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1914</v>
       </c>
@@ -6296,7 +6302,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1914</v>
       </c>
@@ -6322,7 +6328,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1914</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1914</v>
       </c>
@@ -6374,7 +6380,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1914</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1914</v>
       </c>
@@ -6429,7 +6435,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1914</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1914</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1914</v>
       </c>
@@ -6504,7 +6510,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1914</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1914</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1914</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1914</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1914</v>
       </c>
@@ -6640,7 +6646,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1914</v>
       </c>
@@ -6672,7 +6678,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1914</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1914</v>
       </c>
@@ -6736,7 +6742,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1914</v>
       </c>
@@ -6765,7 +6771,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1914</v>
       </c>
@@ -6794,7 +6800,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1914</v>
       </c>
@@ -6820,7 +6826,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1914</v>
       </c>
@@ -6846,7 +6852,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1914</v>
       </c>
@@ -6872,7 +6878,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1914</v>
       </c>
@@ -6898,7 +6904,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1914</v>
       </c>
@@ -6924,7 +6930,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1914</v>
       </c>
@@ -6950,7 +6956,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1914</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1914</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1914</v>
       </c>
@@ -7028,7 +7034,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1914</v>
       </c>
@@ -7054,7 +7060,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1914</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1914</v>
       </c>
@@ -7106,7 +7112,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1914</v>
       </c>
@@ -7132,7 +7138,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1914</v>
       </c>
@@ -7158,7 +7164,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1914</v>
       </c>
@@ -7184,7 +7190,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1914</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1914</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1914</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1914</v>
       </c>
@@ -7300,7 +7306,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1914</v>
       </c>
@@ -7326,7 +7332,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1914</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1914</v>
       </c>
@@ -7378,7 +7384,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1914</v>
       </c>
@@ -7404,7 +7410,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1914</v>
       </c>
@@ -7430,7 +7436,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1914</v>
       </c>
@@ -7459,7 +7465,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1914</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1914</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1914</v>
       </c>
@@ -7546,7 +7552,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1914</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1914</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1914</v>
       </c>
@@ -7633,7 +7639,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1914</v>
       </c>
@@ -7662,7 +7668,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1914</v>
       </c>
@@ -7688,7 +7694,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1914</v>
       </c>
@@ -7714,7 +7720,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1914</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1914</v>
       </c>
@@ -7766,7 +7772,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1914</v>
       </c>
@@ -7792,7 +7798,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1914</v>
       </c>
@@ -7818,7 +7824,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1914</v>
       </c>
@@ -7844,7 +7850,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1914</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1914</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1914</v>
       </c>
@@ -7922,7 +7928,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1914</v>
       </c>
@@ -7948,7 +7954,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1914</v>
       </c>
@@ -7974,7 +7980,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1914</v>
       </c>
@@ -8000,7 +8006,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1914</v>
       </c>
@@ -8026,7 +8032,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1914</v>
       </c>
@@ -8052,7 +8058,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1914</v>
       </c>
@@ -8078,7 +8084,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1914</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1914</v>
       </c>
@@ -8130,7 +8136,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1914</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1914</v>
       </c>
@@ -8182,7 +8188,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1914</v>
       </c>
@@ -8208,7 +8214,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1914</v>
       </c>
@@ -8234,7 +8240,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1914</v>
       </c>
@@ -8260,7 +8266,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1914</v>
       </c>
@@ -8286,7 +8292,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1914</v>
       </c>
@@ -8312,7 +8318,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1914</v>
       </c>
@@ -8338,7 +8344,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1914</v>
       </c>
@@ -8364,7 +8370,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1914</v>
       </c>
@@ -8390,7 +8396,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1914</v>
       </c>
@@ -8416,7 +8422,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1914</v>
       </c>
@@ -8442,7 +8448,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1914</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1914</v>
       </c>
@@ -8494,7 +8500,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1914</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1914</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1914</v>
       </c>
@@ -8572,7 +8578,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1914</v>
       </c>
@@ -8598,7 +8604,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1914</v>
       </c>
@@ -8624,7 +8630,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1914</v>
       </c>
@@ -8650,7 +8656,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1914</v>
       </c>
@@ -8676,7 +8682,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1914</v>
       </c>
@@ -8702,7 +8708,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1914</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1914</v>
       </c>
@@ -8754,7 +8760,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1914</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1914</v>
       </c>
@@ -8806,7 +8812,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1914</v>
       </c>
@@ -8832,7 +8838,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1914</v>
       </c>
@@ -8858,7 +8864,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1914</v>
       </c>
@@ -8884,7 +8890,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1914</v>
       </c>
@@ -8910,7 +8916,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1914</v>
       </c>
@@ -8936,7 +8942,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1914</v>
       </c>
@@ -8962,7 +8968,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1914</v>
       </c>
@@ -8988,7 +8994,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1914</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1914</v>
       </c>
@@ -9040,7 +9046,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1914</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1914</v>
       </c>
@@ -9092,7 +9098,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1914</v>
       </c>
@@ -9118,7 +9124,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1914</v>
       </c>
@@ -9144,7 +9150,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1914</v>
       </c>
@@ -9170,7 +9176,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1914</v>
       </c>
@@ -9196,7 +9202,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1914</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1914</v>
       </c>
@@ -9248,7 +9254,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1914</v>
       </c>
@@ -9274,7 +9280,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1914</v>
       </c>
@@ -9297,10 +9303,10 @@
         <v>1250</v>
       </c>
       <c r="I183" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1914</v>
       </c>
@@ -9323,10 +9329,10 @@
         <v>1250</v>
       </c>
       <c r="I184" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1914</v>
       </c>
@@ -9349,10 +9355,10 @@
         <v>1250</v>
       </c>
       <c r="I185" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1914</v>
       </c>
@@ -9371,8 +9377,11 @@
       <c r="G186" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H186" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1914</v>
       </c>
@@ -9391,8 +9400,11 @@
       <c r="G187" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H187" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1914</v>
       </c>
@@ -9411,8 +9423,11 @@
       <c r="G188" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H188" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1914</v>
       </c>
@@ -9431,8 +9446,11 @@
       <c r="G189" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1914</v>
       </c>
@@ -9455,10 +9473,10 @@
         <v>1334</v>
       </c>
       <c r="I190" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1914</v>
       </c>
@@ -9481,10 +9499,10 @@
         <v>1334</v>
       </c>
       <c r="I191" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1914</v>
       </c>
@@ -9507,10 +9525,10 @@
         <v>1334</v>
       </c>
       <c r="I192" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1914</v>
       </c>
@@ -9533,10 +9551,10 @@
         <v>1334</v>
       </c>
       <c r="I193" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1914</v>
       </c>
@@ -9562,7 +9580,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1914</v>
       </c>
@@ -9588,7 +9606,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1914</v>
       </c>
@@ -9614,7 +9632,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1914</v>
       </c>
@@ -9640,7 +9658,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1914</v>
       </c>
@@ -9666,7 +9684,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1914</v>
       </c>
@@ -9692,7 +9710,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1914</v>
       </c>
@@ -9718,7 +9736,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1914</v>
       </c>
@@ -9747,7 +9765,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1914</v>
       </c>
@@ -9776,7 +9794,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1914</v>
       </c>
@@ -9805,7 +9823,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1914</v>
       </c>
@@ -9834,7 +9852,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1914</v>
       </c>
@@ -9863,7 +9881,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1914</v>
       </c>
@@ -9892,7 +9910,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1914</v>
       </c>
@@ -9918,7 +9936,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1914</v>
       </c>
@@ -9944,7 +9962,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1914</v>
       </c>
@@ -9970,7 +9988,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1914</v>
       </c>
@@ -9996,7 +10014,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1914</v>
       </c>
@@ -10022,7 +10040,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1914</v>
       </c>
@@ -10042,7 +10060,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1914</v>
       </c>
@@ -10068,7 +10086,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1914</v>
       </c>
@@ -10094,7 +10112,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1914</v>
       </c>
@@ -10120,7 +10138,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1914</v>
       </c>
@@ -10146,7 +10164,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1914</v>
       </c>
@@ -10172,7 +10190,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1914</v>
       </c>
@@ -10198,7 +10216,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1914</v>
       </c>
@@ -10224,7 +10242,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1914</v>
       </c>
@@ -10250,7 +10268,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1914</v>
       </c>
@@ -10276,7 +10294,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1914</v>
       </c>
@@ -10302,7 +10320,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1914</v>
       </c>
@@ -10328,7 +10346,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1914</v>
       </c>
@@ -10354,7 +10372,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1914</v>
       </c>
@@ -10380,7 +10398,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1914</v>
       </c>
@@ -10406,7 +10424,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1914</v>
       </c>
@@ -10432,7 +10450,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1914</v>
       </c>
@@ -10458,7 +10476,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1914</v>
       </c>
@@ -10484,7 +10502,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1914</v>
       </c>
@@ -10510,7 +10528,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1914</v>
       </c>
@@ -10536,7 +10554,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1914</v>
       </c>
@@ -10562,7 +10580,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1914</v>
       </c>
@@ -10588,7 +10606,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1914</v>
       </c>
@@ -10614,7 +10632,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1914</v>
       </c>
@@ -10640,7 +10658,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1914</v>
       </c>
@@ -10669,7 +10687,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1914</v>
       </c>
@@ -10698,7 +10716,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1914</v>
       </c>
@@ -10724,7 +10742,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1914</v>
       </c>
@@ -10750,7 +10768,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1914</v>
       </c>
@@ -10776,7 +10794,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1914</v>
       </c>
@@ -10802,7 +10820,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1914</v>
       </c>
@@ -10831,7 +10849,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1914</v>
       </c>
@@ -10860,7 +10878,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1914</v>
       </c>
@@ -10886,7 +10904,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1914</v>
       </c>
@@ -10912,7 +10930,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1914</v>
       </c>
@@ -10938,7 +10956,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1914</v>
       </c>
@@ -10964,7 +10982,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1914</v>
       </c>
@@ -10990,7 +11008,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1914</v>
       </c>
@@ -11016,7 +11034,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1914</v>
       </c>
@@ -11042,7 +11060,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1914</v>
       </c>
@@ -11068,7 +11086,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1914</v>
       </c>
@@ -11094,7 +11112,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1914</v>
       </c>
@@ -11120,7 +11138,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1914</v>
       </c>
@@ -11146,7 +11164,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1914</v>
       </c>
@@ -11172,7 +11190,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1914</v>
       </c>
@@ -11198,7 +11216,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1914</v>
       </c>
@@ -11224,7 +11242,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1914</v>
       </c>
@@ -11250,7 +11268,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1914</v>
       </c>
@@ -11276,7 +11294,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1914</v>
       </c>
@@ -11302,7 +11320,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1914</v>
       </c>
@@ -11328,7 +11346,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1914</v>
       </c>
@@ -11354,7 +11372,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1914</v>
       </c>
@@ -11380,7 +11398,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1914</v>
       </c>
@@ -11406,7 +11424,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1914</v>
       </c>
@@ -11432,7 +11450,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1914</v>
       </c>
@@ -11458,7 +11476,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1914</v>
       </c>
@@ -11484,7 +11502,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1914</v>
       </c>
@@ -11510,7 +11528,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1914</v>
       </c>
@@ -11536,7 +11554,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1914</v>
       </c>
@@ -11562,7 +11580,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1914</v>
       </c>
@@ -11588,7 +11606,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1914</v>
       </c>
@@ -11614,7 +11632,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1914</v>
       </c>
@@ -11640,7 +11658,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1914</v>
       </c>
@@ -11666,7 +11684,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1914</v>
       </c>
@@ -11692,7 +11710,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1914</v>
       </c>
@@ -11718,7 +11736,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1914</v>
       </c>
@@ -11744,7 +11762,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1914</v>
       </c>
@@ -11770,7 +11788,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1914</v>
       </c>
@@ -11796,7 +11814,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1914</v>
       </c>
@@ -11822,7 +11840,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1914</v>
       </c>
@@ -11848,7 +11866,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1914</v>
       </c>
@@ -11874,7 +11892,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1914</v>
       </c>
@@ -11903,7 +11921,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1914</v>
       </c>
@@ -11929,7 +11947,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1914</v>
       </c>
@@ -11955,7 +11973,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1914</v>
       </c>
@@ -11981,7 +11999,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1914</v>
       </c>
@@ -12007,7 +12025,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1914</v>
       </c>
@@ -12033,7 +12051,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1914</v>
       </c>
@@ -12059,7 +12077,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1914</v>
       </c>
@@ -12085,7 +12103,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1914</v>
       </c>
@@ -12111,7 +12129,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1914</v>
       </c>
@@ -12137,7 +12155,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1914</v>
       </c>
@@ -12163,7 +12181,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1914</v>
       </c>
@@ -12189,7 +12207,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1914</v>
       </c>
@@ -12215,7 +12233,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1914</v>
       </c>
@@ -12241,7 +12259,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1914</v>
       </c>
@@ -12267,7 +12285,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1914</v>
       </c>
@@ -12293,7 +12311,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1914</v>
       </c>
@@ -12319,7 +12337,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1914</v>
       </c>
@@ -12345,7 +12363,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1914</v>
       </c>
@@ -12371,7 +12389,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1914</v>
       </c>
@@ -12397,7 +12415,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1914</v>
       </c>
@@ -12423,7 +12441,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1914</v>
       </c>
@@ -12449,7 +12467,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1914</v>
       </c>
@@ -12475,7 +12493,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1914</v>
       </c>
@@ -12501,7 +12519,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1914</v>
       </c>
@@ -12527,7 +12545,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1914</v>
       </c>
@@ -12553,7 +12571,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1914</v>
       </c>
@@ -12579,7 +12597,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1914</v>
       </c>
@@ -12605,7 +12623,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1914</v>
       </c>
@@ -12631,7 +12649,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1914</v>
       </c>
@@ -12657,7 +12675,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1914</v>
       </c>
@@ -12683,7 +12701,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1914</v>
       </c>
@@ -12709,7 +12727,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1914</v>
       </c>
@@ -12735,7 +12753,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1914</v>
       </c>
@@ -12761,7 +12779,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1914</v>
       </c>
@@ -12787,7 +12805,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1914</v>
       </c>
@@ -12813,7 +12831,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1914</v>
       </c>
@@ -12839,7 +12857,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1914</v>
       </c>
@@ -12865,7 +12883,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1914</v>
       </c>
@@ -12891,7 +12909,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1914</v>
       </c>
@@ -12917,7 +12935,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1914</v>
       </c>
@@ -12943,7 +12961,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1914</v>
       </c>
@@ -12969,7 +12987,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1914</v>
       </c>
@@ -12998,7 +13016,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1914</v>
       </c>
@@ -13024,7 +13042,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1914</v>
       </c>
@@ -13050,7 +13068,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1914</v>
       </c>
@@ -13076,7 +13094,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1914</v>
       </c>
@@ -13102,7 +13120,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1914</v>
       </c>
@@ -13128,7 +13146,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1914</v>
       </c>
@@ -13154,7 +13172,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1914</v>
       </c>
@@ -13180,7 +13198,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1914</v>
       </c>
@@ -13206,7 +13224,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1914</v>
       </c>
@@ -13232,7 +13250,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1914</v>
       </c>
@@ -13258,7 +13276,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1914</v>
       </c>
@@ -13284,7 +13302,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1914</v>
       </c>
@@ -13310,7 +13328,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1914</v>
       </c>
@@ -13336,7 +13354,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1914</v>
       </c>
@@ -13362,7 +13380,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1914</v>
       </c>
@@ -13391,7 +13409,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1914</v>
       </c>
@@ -13420,7 +13438,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1914</v>
       </c>
@@ -13446,7 +13464,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1914</v>
       </c>
@@ -13472,7 +13490,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1914</v>
       </c>
@@ -13498,7 +13516,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1914</v>
       </c>
@@ -13524,7 +13542,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1914</v>
       </c>
@@ -13550,7 +13568,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1914</v>
       </c>
@@ -13576,7 +13594,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1914</v>
       </c>
@@ -13602,7 +13620,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1914</v>
       </c>
@@ -13628,7 +13646,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1914</v>
       </c>
@@ -13654,7 +13672,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1914</v>
       </c>
@@ -13680,7 +13698,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1914</v>
       </c>
@@ -13706,7 +13724,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1914</v>
       </c>
@@ -13732,7 +13750,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1914</v>
       </c>
@@ -13758,7 +13776,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1914</v>
       </c>
@@ -13784,7 +13802,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1914</v>
       </c>
@@ -13810,7 +13828,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1914</v>
       </c>
@@ -13836,7 +13854,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1914</v>
       </c>
@@ -13865,7 +13883,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1914</v>
       </c>
@@ -13891,7 +13909,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1914</v>
       </c>
@@ -13917,7 +13935,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1914</v>
       </c>
@@ -13943,7 +13961,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1914</v>
       </c>
@@ -13969,7 +13987,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1914</v>
       </c>
@@ -14001,7 +14019,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1914</v>
       </c>
@@ -14027,7 +14045,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1914</v>
       </c>
@@ -14053,7 +14071,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1914</v>
       </c>
@@ -14079,7 +14097,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1914</v>
       </c>
@@ -14105,7 +14123,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1914</v>
       </c>
@@ -14134,7 +14152,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1914</v>
       </c>
@@ -14160,7 +14178,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1914</v>
       </c>
@@ -14186,7 +14204,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1914</v>
       </c>
@@ -14212,7 +14230,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1914</v>
       </c>
@@ -14238,7 +14256,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1914</v>
       </c>
@@ -14264,7 +14282,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1914</v>
       </c>
@@ -14290,7 +14308,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1914</v>
       </c>
@@ -14316,7 +14334,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1914</v>
       </c>
@@ -14342,7 +14360,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1914</v>
       </c>
@@ -14368,7 +14386,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1914</v>
       </c>
@@ -14394,7 +14412,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1914</v>
       </c>
@@ -14420,7 +14438,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1914</v>
       </c>
@@ -14449,7 +14467,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1914</v>
       </c>
@@ -14478,7 +14496,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1914</v>
       </c>
@@ -14507,7 +14525,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1914</v>
       </c>
@@ -14533,7 +14551,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1914</v>
       </c>
@@ -14559,7 +14577,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1914</v>
       </c>
@@ -14585,7 +14603,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1914</v>
       </c>
@@ -14614,7 +14632,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1914</v>
       </c>
@@ -14643,7 +14661,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1914</v>
       </c>
@@ -14669,7 +14687,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1914</v>
       </c>
@@ -14698,7 +14716,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1914</v>
       </c>
@@ -14727,7 +14745,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1914</v>
       </c>
@@ -14756,7 +14774,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1914</v>
       </c>
@@ -14785,7 +14803,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1914</v>
       </c>
@@ -14814,7 +14832,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1914</v>
       </c>
@@ -14840,7 +14858,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1914</v>
       </c>
@@ -14869,7 +14887,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1914</v>
       </c>
@@ -14895,7 +14913,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1914</v>
       </c>
@@ -14921,7 +14939,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1914</v>
       </c>
@@ -14947,7 +14965,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1914</v>
       </c>
@@ -14973,7 +14991,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1914</v>
       </c>
@@ -14999,7 +15017,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1914</v>
       </c>
@@ -15025,7 +15043,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1914</v>
       </c>
@@ -15051,7 +15069,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1914</v>
       </c>
@@ -15077,7 +15095,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1914</v>
       </c>
@@ -15100,7 +15118,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1914</v>
       </c>
@@ -15126,7 +15144,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1914</v>
       </c>
@@ -15152,7 +15170,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1914</v>
       </c>
@@ -15178,7 +15196,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1914</v>
       </c>
@@ -15204,7 +15222,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1914</v>
       </c>
@@ -15230,7 +15248,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1914</v>
       </c>
@@ -15256,7 +15274,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1914</v>
       </c>
@@ -15282,7 +15300,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1914</v>
       </c>
@@ -15308,7 +15326,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1914</v>
       </c>
@@ -15334,7 +15352,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1914</v>
       </c>
@@ -15360,7 +15378,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1914</v>
       </c>
@@ -15386,7 +15404,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1914</v>
       </c>
@@ -15412,7 +15430,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1914</v>
       </c>
@@ -15438,7 +15456,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1914</v>
       </c>
@@ -15464,7 +15482,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1914</v>
       </c>
@@ -15490,7 +15508,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1914</v>
       </c>
@@ -15516,7 +15534,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1914</v>
       </c>
@@ -15542,7 +15560,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1914</v>
       </c>
@@ -15565,7 +15583,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1914</v>
       </c>
@@ -15591,7 +15609,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1914</v>
       </c>
@@ -15617,7 +15635,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1914</v>
       </c>
@@ -15643,7 +15661,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1914</v>
       </c>
@@ -15669,7 +15687,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1914</v>
       </c>
@@ -15695,7 +15713,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1914</v>
       </c>
@@ -15721,7 +15739,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1914</v>
       </c>
@@ -15747,7 +15765,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1914</v>
       </c>
@@ -15773,7 +15791,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1914</v>
       </c>
@@ -15799,7 +15817,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1914</v>
       </c>
@@ -15825,7 +15843,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1914</v>
       </c>
@@ -15851,7 +15869,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1914</v>
       </c>
@@ -15877,7 +15895,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1914</v>
       </c>
@@ -15903,7 +15921,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1914</v>
       </c>
@@ -15929,7 +15947,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1914</v>
       </c>
@@ -15955,7 +15973,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1914</v>
       </c>

--- a/data-migration/xlsx_1900-/1914_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1914_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C46DAB4-EBF0-4507-B28B-6EFD1AE7E240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCAC3C0-3C9B-4044-8C3D-AA589179A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="1366">
   <si>
     <t>Sommer</t>
   </si>
@@ -1837,6 +1837,9 @@
     <t>Augenspiegelkurs für Vorgerückte</t>
   </si>
   <si>
+    <t>Privatpoliklinik für Augenkranke (practicum privatissimum). Für je 2 Teilnehmer</t>
+  </si>
+  <si>
     <t>Übungen in Therapie und Diagnostik der Augenkrankheiten, nebst besonderer Berücksichtigung der Augenverletzungen in Bezug auf Unfall und Gerichtspraxis</t>
   </si>
   <si>
@@ -2257,18 +2260,12 @@
     <t>Neuenglische Dichter des 19. Jahrhunderts</t>
   </si>
   <si>
-    <t>Phonetique descriptive du français</t>
-  </si>
-  <si>
     <t>Lecture de troubadours</t>
   </si>
   <si>
     <t>Histoire de la littérature du vieux français, I re partie</t>
   </si>
   <si>
-    <t>La poésie dramatique au XVII e siècle en France</t>
-  </si>
-  <si>
     <t>Histoire de la littérature française de 1715 à la Revolution</t>
   </si>
   <si>
@@ -3049,6 +3046,9 @@
     <t>Montag 8-9 (vorm.). Freitag 6-7 (abends)</t>
   </si>
   <si>
+    <t>1 mal wöchentlich 8-11</t>
+  </si>
+  <si>
     <t>Freitag 8-10</t>
   </si>
   <si>
@@ -3622,9 +3622,6 @@
     <t>reichel_hf</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3718,9 +3715,6 @@
     <t>mueller_h</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>sommer_e</t>
   </si>
   <si>
@@ -3943,9 +3937,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
@@ -3961,9 +3952,6 @@
     <t>schlaginhaufen_o</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>meyer_a</t>
   </si>
   <si>
@@ -4000,9 +3988,6 @@
     <t>fick_age</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -4111,10 +4096,28 @@
     <t>nager_fr</t>
   </si>
   <si>
-    <t xml:space="preserve"> Für je 2 Teilnehmer 1 mal wöchentlich 8-11</t>
-  </si>
-  <si>
-    <t>Privatpoliklinik für Augenkranke (practicum privatissimum)</t>
+    <t>Phonétique descriptive du français</t>
+  </si>
+  <si>
+    <t>La poésie dramatique au XVIIe siècle en France</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4150,11 +4153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4458,14 +4464,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E147" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="D92" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
@@ -4487,13 +4493,13 @@
         <v>448</v>
       </c>
       <c r="G1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1" t="s">
-        <v>1313</v>
+        <v>1361</v>
       </c>
       <c r="I1" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4513,13 +4519,13 @@
         <v>449</v>
       </c>
       <c r="G2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H2" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="I2" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4539,13 +4545,13 @@
         <v>450</v>
       </c>
       <c r="G3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H3" t="s">
         <v>1195</v>
       </c>
       <c r="I3" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4565,13 +4571,13 @@
         <v>451</v>
       </c>
       <c r="G4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H4" t="s">
         <v>1195</v>
       </c>
       <c r="I4" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4591,13 +4597,13 @@
         <v>452</v>
       </c>
       <c r="G5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H5" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="I5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4617,13 +4623,13 @@
         <v>453</v>
       </c>
       <c r="G6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H6" t="s">
         <v>1196</v>
       </c>
       <c r="I6" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4643,13 +4649,13 @@
         <v>454</v>
       </c>
       <c r="G7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H7" t="s">
         <v>1196</v>
       </c>
       <c r="I7" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4669,13 +4675,13 @@
         <v>455</v>
       </c>
       <c r="G8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H8" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I8" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -4695,13 +4701,13 @@
         <v>456</v>
       </c>
       <c r="G9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H9" t="s">
         <v>1196</v>
       </c>
       <c r="I9" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4721,13 +4727,13 @@
         <v>457</v>
       </c>
       <c r="G10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H10" t="s">
         <v>1196</v>
       </c>
       <c r="I10" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4747,13 +4753,13 @@
         <v>458</v>
       </c>
       <c r="G11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H11" t="s">
         <v>1197</v>
       </c>
       <c r="I11" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -4773,13 +4779,13 @@
         <v>459</v>
       </c>
       <c r="G12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H12" t="s">
         <v>1196</v>
       </c>
       <c r="I12" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -4799,13 +4805,13 @@
         <v>460</v>
       </c>
       <c r="G13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H13" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I13" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -4825,13 +4831,13 @@
         <v>461</v>
       </c>
       <c r="G14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H14" t="s">
         <v>1194</v>
       </c>
       <c r="I14" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4851,13 +4857,13 @@
         <v>462</v>
       </c>
       <c r="G15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H15" t="s">
         <v>1194</v>
       </c>
       <c r="I15" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4877,13 +4883,13 @@
         <v>463</v>
       </c>
       <c r="G16" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H16" t="s">
         <v>1194</v>
       </c>
       <c r="I16" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4903,13 +4909,13 @@
         <v>464</v>
       </c>
       <c r="G17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H17" t="s">
-        <v>1313</v>
+        <v>1361</v>
       </c>
       <c r="I17" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4929,16 +4935,16 @@
         <v>465</v>
       </c>
       <c r="G18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H18" t="s">
         <v>1198</v>
       </c>
       <c r="I18" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J18" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4958,16 +4964,16 @@
         <v>466</v>
       </c>
       <c r="G19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H19" t="s">
         <v>1198</v>
       </c>
       <c r="I19" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J19" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4987,13 +4993,13 @@
         <v>467</v>
       </c>
       <c r="G20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H20" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I20" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5013,16 +5019,16 @@
         <v>468</v>
       </c>
       <c r="G21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H21" t="s">
         <v>1198</v>
       </c>
       <c r="I21" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J21" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5042,13 +5048,13 @@
         <v>469</v>
       </c>
       <c r="G22" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H22" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I22" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5068,13 +5074,13 @@
         <v>470</v>
       </c>
       <c r="G23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H23" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I23" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5094,13 +5100,13 @@
         <v>471</v>
       </c>
       <c r="G24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H24" t="s">
         <v>1195</v>
       </c>
       <c r="I24" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5120,13 +5126,13 @@
         <v>472</v>
       </c>
       <c r="G25" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H25" t="s">
         <v>1196</v>
       </c>
       <c r="I25" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5146,13 +5152,13 @@
         <v>473</v>
       </c>
       <c r="G26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H26" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I26" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5172,13 +5178,13 @@
         <v>474</v>
       </c>
       <c r="G27" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H27" t="s">
         <v>1194</v>
       </c>
       <c r="I27" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5198,13 +5204,13 @@
         <v>475</v>
       </c>
       <c r="G28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H28" t="s">
-        <v>1313</v>
+        <v>1361</v>
       </c>
       <c r="I28" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5224,13 +5230,13 @@
         <v>476</v>
       </c>
       <c r="G29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H29" t="s">
         <v>1198</v>
       </c>
       <c r="I29" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5250,13 +5256,13 @@
         <v>477</v>
       </c>
       <c r="G30" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H30" t="s">
         <v>1199</v>
       </c>
       <c r="I30" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5276,13 +5282,13 @@
         <v>478</v>
       </c>
       <c r="G31" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H31" t="s">
         <v>1199</v>
       </c>
       <c r="I31" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5302,13 +5308,13 @@
         <v>479</v>
       </c>
       <c r="G32" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H32" t="s">
-        <v>1200</v>
+        <v>1362</v>
       </c>
       <c r="I32" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5328,13 +5334,13 @@
         <v>480</v>
       </c>
       <c r="G33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H33" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I33" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5354,13 +5360,13 @@
         <v>481</v>
       </c>
       <c r="G34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H34" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I34" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5380,13 +5386,13 @@
         <v>482</v>
       </c>
       <c r="G35" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I35" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5406,13 +5412,13 @@
         <v>483</v>
       </c>
       <c r="G36" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H36" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="I36" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5432,13 +5438,13 @@
         <v>484</v>
       </c>
       <c r="G37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H37" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I37" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5458,13 +5464,13 @@
         <v>485</v>
       </c>
       <c r="G38" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I38" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5484,10 +5490,10 @@
         <v>486</v>
       </c>
       <c r="H39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I39" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5507,13 +5513,13 @@
         <v>487</v>
       </c>
       <c r="G40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H40" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I40" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5533,13 +5539,13 @@
         <v>488</v>
       </c>
       <c r="G41" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H41" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I41" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5559,13 +5565,13 @@
         <v>489</v>
       </c>
       <c r="G42" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H42" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I42" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5585,13 +5591,13 @@
         <v>490</v>
       </c>
       <c r="G43" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H43" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I43" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5611,13 +5617,13 @@
         <v>491</v>
       </c>
       <c r="G44" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H44" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I44" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5637,13 +5643,13 @@
         <v>492</v>
       </c>
       <c r="G45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H45" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I45" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5663,13 +5669,13 @@
         <v>493</v>
       </c>
       <c r="G46" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H46" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I46" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5689,13 +5695,13 @@
         <v>494</v>
       </c>
       <c r="G47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H47" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I47" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5715,13 +5721,13 @@
         <v>495</v>
       </c>
       <c r="G48" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H48" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I48" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5741,13 +5747,13 @@
         <v>496</v>
       </c>
       <c r="G49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I49" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5767,13 +5773,13 @@
         <v>497</v>
       </c>
       <c r="G50" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H50" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I50" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5793,13 +5799,13 @@
         <v>498</v>
       </c>
       <c r="G51" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H51" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I51" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5819,13 +5825,13 @@
         <v>499</v>
       </c>
       <c r="G52" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H52" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I52" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5845,13 +5851,13 @@
         <v>500</v>
       </c>
       <c r="G53" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H53" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I53" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5871,13 +5877,13 @@
         <v>501</v>
       </c>
       <c r="G54" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H54" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I54" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5897,16 +5903,16 @@
         <v>502</v>
       </c>
       <c r="G55" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H55" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I55" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J55" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5926,16 +5932,16 @@
         <v>503</v>
       </c>
       <c r="G56" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H56" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I56" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J56" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5955,13 +5961,13 @@
         <v>504</v>
       </c>
       <c r="G57" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H57" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I57" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5981,13 +5987,13 @@
         <v>505</v>
       </c>
       <c r="G58" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H58" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I58" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6007,13 +6013,13 @@
         <v>506</v>
       </c>
       <c r="G59" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H59" t="s">
         <v>1199</v>
       </c>
       <c r="I59" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6033,13 +6039,13 @@
         <v>507</v>
       </c>
       <c r="G60" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H60" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I60" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6059,13 +6065,13 @@
         <v>508</v>
       </c>
       <c r="G61" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H61" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I61" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6085,13 +6091,13 @@
         <v>509</v>
       </c>
       <c r="G62" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H62" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="I62" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6111,13 +6117,13 @@
         <v>510</v>
       </c>
       <c r="G63" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H63" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I63" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6137,13 +6143,13 @@
         <v>511</v>
       </c>
       <c r="G64" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H64" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I64" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6163,13 +6169,13 @@
         <v>512</v>
       </c>
       <c r="G65" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H65" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I65" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6189,13 +6195,13 @@
         <v>513</v>
       </c>
       <c r="G66" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H66" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I66" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6215,13 +6221,13 @@
         <v>514</v>
       </c>
       <c r="G67" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H67" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I67" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6241,13 +6247,13 @@
         <v>515</v>
       </c>
       <c r="G68" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H68" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I68" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6267,13 +6273,13 @@
         <v>516</v>
       </c>
       <c r="G69" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H69" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I69" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6293,13 +6299,13 @@
         <v>517</v>
       </c>
       <c r="G70" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H70" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I70" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6319,13 +6325,13 @@
         <v>518</v>
       </c>
       <c r="G71" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H71" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I71" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6345,13 +6351,13 @@
         <v>519</v>
       </c>
       <c r="G72" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H72" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I72" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6371,13 +6377,13 @@
         <v>520</v>
       </c>
       <c r="G73" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H73" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I73" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6397,13 +6403,13 @@
         <v>521</v>
       </c>
       <c r="G74" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H74" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I74" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6423,16 +6429,16 @@
         <v>522</v>
       </c>
       <c r="G75" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H75" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I75" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J75" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6452,13 +6458,13 @@
         <v>523</v>
       </c>
       <c r="G76" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H76" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I76" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6478,10 +6484,10 @@
         <v>524</v>
       </c>
       <c r="H77" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I77" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6501,13 +6507,13 @@
         <v>525</v>
       </c>
       <c r="G78" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H78" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I78" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6527,13 +6533,13 @@
         <v>526</v>
       </c>
       <c r="G79" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H79" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I79" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6553,13 +6559,13 @@
         <v>527</v>
       </c>
       <c r="G80" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H80" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I80" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -6579,13 +6585,13 @@
         <v>528</v>
       </c>
       <c r="G81" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H81" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I81" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -6608,13 +6614,13 @@
         <v>529</v>
       </c>
       <c r="G82" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H82" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I82" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -6637,13 +6643,13 @@
         <v>530</v>
       </c>
       <c r="G83" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H83" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I83" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -6663,19 +6669,19 @@
         <v>531</v>
       </c>
       <c r="G84" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H84" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K84" t="s">
         <v>1219</v>
       </c>
-      <c r="I84" t="s">
-        <v>1349</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1220</v>
-      </c>
       <c r="L84" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -6695,25 +6701,25 @@
         <v>532</v>
       </c>
       <c r="G85" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H85" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K85" t="s">
         <v>1219</v>
       </c>
-      <c r="I85" t="s">
-        <v>1349</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1220</v>
-      </c>
       <c r="L85" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="M85" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="N85" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -6733,13 +6739,13 @@
         <v>533</v>
       </c>
       <c r="G86" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H86" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I86" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -6762,13 +6768,13 @@
         <v>534</v>
       </c>
       <c r="G87" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H87" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I87" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -6791,13 +6797,13 @@
         <v>535</v>
       </c>
       <c r="G88" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H88" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I88" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -6817,13 +6823,13 @@
         <v>536</v>
       </c>
       <c r="G89" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H89" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I89" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -6843,13 +6849,13 @@
         <v>537</v>
       </c>
       <c r="G90" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H90" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I90" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -6869,13 +6875,13 @@
         <v>538</v>
       </c>
       <c r="G91" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H91" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I91" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -6895,13 +6901,13 @@
         <v>539</v>
       </c>
       <c r="G92" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H92" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I92" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -6921,13 +6927,13 @@
         <v>540</v>
       </c>
       <c r="G93" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H93" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I93" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -6947,13 +6953,13 @@
         <v>541</v>
       </c>
       <c r="G94" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H94" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I94" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -6973,13 +6979,13 @@
         <v>542</v>
       </c>
       <c r="G95" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H95" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I95" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -6999,13 +7005,13 @@
         <v>543</v>
       </c>
       <c r="G96" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H96" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I96" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7025,13 +7031,13 @@
         <v>544</v>
       </c>
       <c r="G97" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H97" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I97" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7051,13 +7057,13 @@
         <v>545</v>
       </c>
       <c r="G98" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H98" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I98" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7077,13 +7083,13 @@
         <v>546</v>
       </c>
       <c r="G99" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H99" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I99" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7103,13 +7109,13 @@
         <v>547</v>
       </c>
       <c r="G100" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H100" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I100" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7129,13 +7135,13 @@
         <v>548</v>
       </c>
       <c r="G101" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H101" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I101" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7155,13 +7161,13 @@
         <v>549</v>
       </c>
       <c r="G102" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H102" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I102" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7181,13 +7187,13 @@
         <v>550</v>
       </c>
       <c r="G103" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H103" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I103" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7207,19 +7213,19 @@
         <v>551</v>
       </c>
       <c r="G104" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H104" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="I104" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="K104" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L104" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7239,19 +7245,19 @@
         <v>552</v>
       </c>
       <c r="G105" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H105" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="I105" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="K105" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L105" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7271,13 +7277,13 @@
         <v>553</v>
       </c>
       <c r="G106" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H106" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="I106" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7297,13 +7303,13 @@
         <v>554</v>
       </c>
       <c r="G107" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H107" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I107" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7323,13 +7329,13 @@
         <v>555</v>
       </c>
       <c r="G108" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H108" t="s">
-        <v>1344</v>
+        <v>1365</v>
       </c>
       <c r="I108" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7349,13 +7355,13 @@
         <v>556</v>
       </c>
       <c r="G109" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H109" t="s">
-        <v>1344</v>
+        <v>1365</v>
       </c>
       <c r="I109" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7375,13 +7381,13 @@
         <v>557</v>
       </c>
       <c r="G110" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H110" t="s">
-        <v>1344</v>
+        <v>1365</v>
       </c>
       <c r="I110" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7401,13 +7407,13 @@
         <v>558</v>
       </c>
       <c r="G111" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H111" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="I111" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7427,13 +7433,13 @@
         <v>559</v>
       </c>
       <c r="G112" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H112" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="I112" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -7453,16 +7459,16 @@
         <v>560</v>
       </c>
       <c r="G113" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H113" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I113" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J113" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -7482,16 +7488,16 @@
         <v>561</v>
       </c>
       <c r="G114" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H114" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I114" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J114" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -7511,16 +7517,16 @@
         <v>562</v>
       </c>
       <c r="G115" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H115" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I115" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J115" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -7540,16 +7546,16 @@
         <v>563</v>
       </c>
       <c r="G116" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H116" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I116" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J116" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -7569,16 +7575,16 @@
         <v>564</v>
       </c>
       <c r="G117" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H117" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I117" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J117" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -7598,16 +7604,16 @@
         <v>565</v>
       </c>
       <c r="G118" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H118" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I118" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J118" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -7627,16 +7633,16 @@
         <v>566</v>
       </c>
       <c r="G119" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H119" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I119" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J119" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -7656,16 +7662,16 @@
         <v>567</v>
       </c>
       <c r="G120" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H120" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I120" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J120" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -7685,13 +7691,13 @@
         <v>568</v>
       </c>
       <c r="G121" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H121" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I121" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -7711,13 +7717,13 @@
         <v>569</v>
       </c>
       <c r="G122" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H122" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I122" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -7737,13 +7743,13 @@
         <v>570</v>
       </c>
       <c r="G123" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H123" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I123" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -7763,13 +7769,13 @@
         <v>571</v>
       </c>
       <c r="G124" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H124" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I124" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -7789,13 +7795,13 @@
         <v>572</v>
       </c>
       <c r="G125" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H125" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I125" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -7815,13 +7821,13 @@
         <v>573</v>
       </c>
       <c r="G126" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H126" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I126" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -7841,13 +7847,13 @@
         <v>574</v>
       </c>
       <c r="G127" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H127" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I127" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -7867,13 +7873,13 @@
         <v>575</v>
       </c>
       <c r="G128" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H128" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I128" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7893,13 +7899,13 @@
         <v>576</v>
       </c>
       <c r="G129" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H129" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I129" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7919,13 +7925,13 @@
         <v>577</v>
       </c>
       <c r="G130" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H130" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I130" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7945,13 +7951,13 @@
         <v>578</v>
       </c>
       <c r="G131" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H131" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I131" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7971,13 +7977,13 @@
         <v>579</v>
       </c>
       <c r="G132" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H132" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I132" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7997,13 +8003,13 @@
         <v>580</v>
       </c>
       <c r="G133" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H133" t="s">
-        <v>1232</v>
+        <v>1363</v>
       </c>
       <c r="I133" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8023,13 +8029,13 @@
         <v>581</v>
       </c>
       <c r="G134" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H134" t="s">
-        <v>1232</v>
+        <v>1363</v>
       </c>
       <c r="I134" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8049,13 +8055,13 @@
         <v>582</v>
       </c>
       <c r="G135" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H135" t="s">
-        <v>1232</v>
+        <v>1363</v>
       </c>
       <c r="I135" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8075,13 +8081,13 @@
         <v>583</v>
       </c>
       <c r="G136" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H136" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="I136" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8101,13 +8107,13 @@
         <v>584</v>
       </c>
       <c r="G137" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H137" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I137" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8127,13 +8133,13 @@
         <v>585</v>
       </c>
       <c r="G138" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H138" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I138" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8153,13 +8159,13 @@
         <v>586</v>
       </c>
       <c r="G139" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H139" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I139" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8179,13 +8185,13 @@
         <v>587</v>
       </c>
       <c r="G140" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H140" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="I140" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8205,13 +8211,13 @@
         <v>536</v>
       </c>
       <c r="G141" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H141" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I141" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8231,13 +8237,13 @@
         <v>588</v>
       </c>
       <c r="G142" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H142" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I142" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8257,13 +8263,13 @@
         <v>589</v>
       </c>
       <c r="G143" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H143" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I143" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8283,13 +8289,13 @@
         <v>590</v>
       </c>
       <c r="G144" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H144" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I144" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8309,13 +8315,13 @@
         <v>591</v>
       </c>
       <c r="G145" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H145" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I145" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8335,13 +8341,13 @@
         <v>592</v>
       </c>
       <c r="G146" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H146" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I146" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8361,13 +8367,13 @@
         <v>593</v>
       </c>
       <c r="G147" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H147" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I147" t="s">
         <v>1346</v>
-      </c>
-      <c r="I147" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8387,13 +8393,13 @@
         <v>594</v>
       </c>
       <c r="G148" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H148" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I148" t="s">
         <v>1346</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8413,13 +8419,13 @@
         <v>595</v>
       </c>
       <c r="G149" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H149" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I149" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8439,13 +8445,13 @@
         <v>596</v>
       </c>
       <c r="G150" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H150" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I150" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8465,13 +8471,13 @@
         <v>597</v>
       </c>
       <c r="G151" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H151" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I151" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8491,13 +8497,13 @@
         <v>598</v>
       </c>
       <c r="G152" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H152" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I152" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8517,13 +8523,13 @@
         <v>599</v>
       </c>
       <c r="G153" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H153" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I153" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8543,13 +8549,13 @@
         <v>600</v>
       </c>
       <c r="G154" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H154" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I154" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8569,13 +8575,13 @@
         <v>601</v>
       </c>
       <c r="G155" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H155" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I155" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8595,13 +8601,13 @@
         <v>602</v>
       </c>
       <c r="G156" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H156" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I156" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8621,13 +8627,13 @@
         <v>603</v>
       </c>
       <c r="G157" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H157" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I157" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8647,13 +8653,13 @@
         <v>604</v>
       </c>
       <c r="G158" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H158" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I158" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8670,16 +8676,16 @@
         <v>444</v>
       </c>
       <c r="F159" t="s">
-        <v>1364</v>
+        <v>605</v>
       </c>
       <c r="G159" t="s">
-        <v>1363</v>
+        <v>1008</v>
       </c>
       <c r="H159" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I159" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8696,16 +8702,16 @@
         <v>444</v>
       </c>
       <c r="F160" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G160" t="s">
         <v>1009</v>
       </c>
       <c r="H160" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="I160" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8722,16 +8728,16 @@
         <v>444</v>
       </c>
       <c r="F161" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G161" t="s">
         <v>1010</v>
       </c>
       <c r="H161" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I161" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8748,16 +8754,16 @@
         <v>444</v>
       </c>
       <c r="F162" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G162" t="s">
         <v>1011</v>
       </c>
       <c r="H162" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I162" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8774,16 +8780,16 @@
         <v>444</v>
       </c>
       <c r="F163" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G163" t="s">
         <v>1012</v>
       </c>
-      <c r="H163" t="s">
-        <v>1326</v>
+      <c r="H163" s="1" t="s">
+        <v>1360</v>
       </c>
       <c r="I163" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8800,16 +8806,16 @@
         <v>444</v>
       </c>
       <c r="F164" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G164" t="s">
-        <v>927</v>
-      </c>
-      <c r="H164" t="s">
-        <v>1326</v>
+        <v>926</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>1360</v>
       </c>
       <c r="I164" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8826,16 +8832,16 @@
         <v>444</v>
       </c>
       <c r="F165" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G165" t="s">
         <v>1013</v>
       </c>
       <c r="H165" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="I165" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8852,16 +8858,16 @@
         <v>444</v>
       </c>
       <c r="F166" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G166" t="s">
         <v>1014</v>
       </c>
       <c r="H166" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I166" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8878,16 +8884,16 @@
         <v>444</v>
       </c>
       <c r="F167" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G167" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H167" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I167" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8904,16 +8910,16 @@
         <v>444</v>
       </c>
       <c r="F168" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G168" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H168" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I168" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8930,16 +8936,16 @@
         <v>444</v>
       </c>
       <c r="F169" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G169" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H169" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I169" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8956,16 +8962,16 @@
         <v>444</v>
       </c>
       <c r="F170" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G170" t="s">
         <v>1015</v>
       </c>
       <c r="H170" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="I170" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8982,16 +8988,16 @@
         <v>444</v>
       </c>
       <c r="F171" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G171" t="s">
         <v>1016</v>
       </c>
       <c r="H171" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="I171" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9008,16 +9014,16 @@
         <v>444</v>
       </c>
       <c r="F172" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G172" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H172" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="I172" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9034,16 +9040,16 @@
         <v>444</v>
       </c>
       <c r="F173" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G173" t="s">
         <v>1017</v>
       </c>
       <c r="H173" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I173" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9060,16 +9066,16 @@
         <v>444</v>
       </c>
       <c r="F174" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G174" t="s">
         <v>1018</v>
       </c>
       <c r="H174" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I174" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9086,16 +9092,16 @@
         <v>444</v>
       </c>
       <c r="F175" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G175" t="s">
         <v>1019</v>
       </c>
       <c r="H175" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I175" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9112,16 +9118,16 @@
         <v>444</v>
       </c>
       <c r="F176" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G176" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H176" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I176" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9138,16 +9144,16 @@
         <v>444</v>
       </c>
       <c r="F177" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G177" t="s">
         <v>1020</v>
       </c>
       <c r="H177" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I177" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9164,16 +9170,16 @@
         <v>444</v>
       </c>
       <c r="F178" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G178" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H178" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I178" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9190,16 +9196,16 @@
         <v>444</v>
       </c>
       <c r="F179" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G179" t="s">
         <v>1021</v>
       </c>
       <c r="H179" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="I179" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9216,16 +9222,16 @@
         <v>444</v>
       </c>
       <c r="F180" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G180" t="s">
         <v>1022</v>
       </c>
       <c r="H180" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="I180" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9242,16 +9248,16 @@
         <v>444</v>
       </c>
       <c r="F181" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G181" t="s">
         <v>1023</v>
       </c>
       <c r="H181" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="I181" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9268,16 +9274,16 @@
         <v>444</v>
       </c>
       <c r="F182" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G182" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H182" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I182" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9294,16 +9300,16 @@
         <v>444</v>
       </c>
       <c r="F183" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G183" t="s">
         <v>1024</v>
       </c>
       <c r="H183" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I183" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9320,16 +9326,16 @@
         <v>444</v>
       </c>
       <c r="F184" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G184" t="s">
         <v>1025</v>
       </c>
       <c r="H184" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I184" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9346,16 +9352,16 @@
         <v>444</v>
       </c>
       <c r="F185" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G185" t="s">
         <v>1026</v>
       </c>
       <c r="H185" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I185" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9372,13 +9378,13 @@
         <v>444</v>
       </c>
       <c r="F186" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G186" t="s">
         <v>1027</v>
       </c>
       <c r="H186" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9395,13 +9401,13 @@
         <v>444</v>
       </c>
       <c r="F187" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G187" t="s">
         <v>1028</v>
       </c>
       <c r="H187" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9418,13 +9424,13 @@
         <v>444</v>
       </c>
       <c r="F188" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G188" t="s">
         <v>1029</v>
       </c>
       <c r="H188" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9441,13 +9447,13 @@
         <v>444</v>
       </c>
       <c r="F189" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G189" t="s">
         <v>1030</v>
       </c>
       <c r="H189" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9464,16 +9470,16 @@
         <v>444</v>
       </c>
       <c r="F190" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G190" t="s">
         <v>1031</v>
       </c>
       <c r="H190" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I190" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9490,16 +9496,16 @@
         <v>444</v>
       </c>
       <c r="F191" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G191" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H191" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I191" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9516,16 +9522,16 @@
         <v>444</v>
       </c>
       <c r="F192" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G192" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H192" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I192" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9542,16 +9548,16 @@
         <v>444</v>
       </c>
       <c r="F193" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G193" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H193" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I193" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9568,16 +9574,16 @@
         <v>445</v>
       </c>
       <c r="F194" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G194" t="s">
         <v>1032</v>
       </c>
       <c r="H194" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I194" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9594,16 +9600,16 @@
         <v>445</v>
       </c>
       <c r="F195" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G195" t="s">
         <v>1033</v>
       </c>
       <c r="H195" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I195" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9620,16 +9626,16 @@
         <v>445</v>
       </c>
       <c r="F196" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G196" t="s">
         <v>1034</v>
       </c>
       <c r="H196" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I196" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9646,16 +9652,16 @@
         <v>445</v>
       </c>
       <c r="F197" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G197" t="s">
         <v>1035</v>
       </c>
       <c r="H197" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I197" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9672,16 +9678,16 @@
         <v>445</v>
       </c>
       <c r="F198" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G198" t="s">
         <v>1036</v>
       </c>
       <c r="H198" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I198" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9698,16 +9704,16 @@
         <v>445</v>
       </c>
       <c r="F199" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G199" t="s">
         <v>1037</v>
       </c>
       <c r="H199" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I199" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9724,16 +9730,16 @@
         <v>445</v>
       </c>
       <c r="F200" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G200" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H200" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I200" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9750,19 +9756,19 @@
         <v>445</v>
       </c>
       <c r="F201" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G201" t="s">
         <v>1038</v>
       </c>
       <c r="H201" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I201" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J201" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9779,19 +9785,19 @@
         <v>445</v>
       </c>
       <c r="F202" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G202" t="s">
         <v>1039</v>
       </c>
       <c r="H202" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I202" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J202" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9814,13 +9820,13 @@
         <v>1040</v>
       </c>
       <c r="H203" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I203" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J203" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9837,19 +9843,19 @@
         <v>445</v>
       </c>
       <c r="F204" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G204" t="s">
         <v>1041</v>
       </c>
       <c r="H204" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I204" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J204" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9866,19 +9872,19 @@
         <v>445</v>
       </c>
       <c r="F205" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G205" t="s">
         <v>1042</v>
       </c>
       <c r="H205" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I205" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J205" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9895,19 +9901,19 @@
         <v>445</v>
       </c>
       <c r="F206" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G206" t="s">
         <v>1019</v>
       </c>
       <c r="H206" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I206" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J206" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9924,16 +9930,16 @@
         <v>445</v>
       </c>
       <c r="F207" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G207" t="s">
         <v>1043</v>
       </c>
       <c r="H207" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I207" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9950,16 +9956,16 @@
         <v>445</v>
       </c>
       <c r="F208" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G208" t="s">
         <v>1044</v>
       </c>
       <c r="H208" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I208" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9976,16 +9982,16 @@
         <v>445</v>
       </c>
       <c r="F209" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G209" t="s">
         <v>1045</v>
       </c>
       <c r="H209" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I209" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10002,16 +10008,16 @@
         <v>445</v>
       </c>
       <c r="F210" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G210" t="s">
         <v>1046</v>
       </c>
       <c r="H210" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I210" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10028,16 +10034,16 @@
         <v>445</v>
       </c>
       <c r="F211" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G211" t="s">
         <v>1047</v>
       </c>
       <c r="H211" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I211" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10054,7 +10060,7 @@
         <v>445</v>
       </c>
       <c r="F212" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G212" t="s">
         <v>1048</v>
@@ -10074,16 +10080,16 @@
         <v>445</v>
       </c>
       <c r="F213" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G213" t="s">
         <v>1049</v>
       </c>
       <c r="H213" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I213" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10100,16 +10106,16 @@
         <v>445</v>
       </c>
       <c r="F214" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G214" t="s">
         <v>1050</v>
       </c>
       <c r="H214" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I214" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10126,16 +10132,16 @@
         <v>445</v>
       </c>
       <c r="F215" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G215" t="s">
         <v>1019</v>
       </c>
       <c r="H215" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I215" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10152,16 +10158,16 @@
         <v>445</v>
       </c>
       <c r="F216" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G216" t="s">
         <v>1051</v>
       </c>
       <c r="H216" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I216" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10178,16 +10184,16 @@
         <v>445</v>
       </c>
       <c r="F217" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G217" t="s">
         <v>1052</v>
       </c>
       <c r="H217" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I217" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10204,16 +10210,16 @@
         <v>445</v>
       </c>
       <c r="F218" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G218" t="s">
         <v>1040</v>
       </c>
       <c r="H218" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I218" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10230,16 +10236,16 @@
         <v>445</v>
       </c>
       <c r="F219" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G219" t="s">
         <v>1053</v>
       </c>
       <c r="H219" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I219" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10256,16 +10262,16 @@
         <v>445</v>
       </c>
       <c r="F220" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G220" t="s">
         <v>1019</v>
       </c>
       <c r="H220" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I220" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10282,16 +10288,16 @@
         <v>445</v>
       </c>
       <c r="F221" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G221" t="s">
         <v>1054</v>
       </c>
       <c r="H221" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I221" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10308,16 +10314,16 @@
         <v>445</v>
       </c>
       <c r="F222" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G222" t="s">
         <v>1055</v>
       </c>
       <c r="H222" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I222" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10334,16 +10340,16 @@
         <v>445</v>
       </c>
       <c r="F223" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G223" t="s">
         <v>1056</v>
       </c>
       <c r="H223" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I223" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10360,16 +10366,16 @@
         <v>445</v>
       </c>
       <c r="F224" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G224" t="s">
         <v>1057</v>
       </c>
       <c r="H224" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I224" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10386,16 +10392,16 @@
         <v>446</v>
       </c>
       <c r="F225" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G225" t="s">
         <v>1058</v>
       </c>
       <c r="H225" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I225" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10412,16 +10418,16 @@
         <v>446</v>
       </c>
       <c r="F226" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G226" t="s">
         <v>1059</v>
       </c>
       <c r="H226" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I226" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10438,16 +10444,16 @@
         <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G227" t="s">
         <v>1060</v>
       </c>
       <c r="H227" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I227" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10464,16 +10470,16 @@
         <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G228" t="s">
         <v>1061</v>
       </c>
       <c r="H228" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I228" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10490,16 +10496,16 @@
         <v>446</v>
       </c>
       <c r="F229" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G229" t="s">
         <v>1062</v>
       </c>
       <c r="H229" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I229" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10516,16 +10522,16 @@
         <v>446</v>
       </c>
       <c r="F230" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G230" t="s">
         <v>1063</v>
       </c>
       <c r="H230" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I230" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10542,16 +10548,16 @@
         <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G231" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H231" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I231" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10568,16 +10574,16 @@
         <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G232" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H232" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I232" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10594,16 +10600,16 @@
         <v>446</v>
       </c>
       <c r="F233" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G233" t="s">
         <v>1064</v>
       </c>
       <c r="H233" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I233" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10620,16 +10626,16 @@
         <v>446</v>
       </c>
       <c r="F234" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G234" t="s">
         <v>1065</v>
       </c>
       <c r="H234" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I234" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10652,10 +10658,10 @@
         <v>1066</v>
       </c>
       <c r="H235" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I235" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10672,19 +10678,19 @@
         <v>446</v>
       </c>
       <c r="F236" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G236" t="s">
         <v>1067</v>
       </c>
       <c r="H236" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I236" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J236" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10701,19 +10707,19 @@
         <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G237" t="s">
         <v>1068</v>
       </c>
       <c r="H237" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I237" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J237" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10730,16 +10736,16 @@
         <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G238" t="s">
         <v>1069</v>
       </c>
       <c r="H238" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I238" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10756,16 +10762,16 @@
         <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G239" t="s">
         <v>1070</v>
       </c>
       <c r="H239" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I239" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10782,16 +10788,16 @@
         <v>446</v>
       </c>
       <c r="F240" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G240" t="s">
         <v>1071</v>
       </c>
       <c r="H240" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I240" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10808,16 +10814,16 @@
         <v>446</v>
       </c>
       <c r="F241" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G241" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H241" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I241" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10834,19 +10840,19 @@
         <v>446</v>
       </c>
       <c r="F242" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G242" t="s">
         <v>1072</v>
       </c>
       <c r="H242" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I242" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J242" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10863,19 +10869,19 @@
         <v>446</v>
       </c>
       <c r="F243" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G243" t="s">
         <v>1073</v>
       </c>
       <c r="H243" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I243" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="J243" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10892,16 +10898,16 @@
         <v>446</v>
       </c>
       <c r="F244" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G244" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H244" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I244" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10918,16 +10924,16 @@
         <v>446</v>
       </c>
       <c r="F245" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G245" t="s">
         <v>1074</v>
       </c>
       <c r="H245" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I245" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10944,16 +10950,16 @@
         <v>446</v>
       </c>
       <c r="F246" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G246" t="s">
         <v>1075</v>
       </c>
       <c r="H246" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I246" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10970,16 +10976,16 @@
         <v>446</v>
       </c>
       <c r="F247" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G247" t="s">
         <v>1076</v>
       </c>
       <c r="H247" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I247" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10996,16 +11002,16 @@
         <v>446</v>
       </c>
       <c r="F248" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G248" t="s">
         <v>1077</v>
       </c>
       <c r="H248" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I248" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -11022,16 +11028,16 @@
         <v>446</v>
       </c>
       <c r="F249" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G249" t="s">
         <v>1078</v>
       </c>
       <c r="H249" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I249" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11048,16 +11054,16 @@
         <v>446</v>
       </c>
       <c r="F250" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G250" t="s">
         <v>1079</v>
       </c>
       <c r="H250" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I250" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11074,7 +11080,7 @@
         <v>446</v>
       </c>
       <c r="F251" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G251" t="s">
         <v>1080</v>
@@ -11083,7 +11089,7 @@
         <v>1195</v>
       </c>
       <c r="I251" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11100,16 +11106,16 @@
         <v>446</v>
       </c>
       <c r="F252" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G252" t="s">
         <v>1081</v>
       </c>
       <c r="H252" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I252" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11126,16 +11132,16 @@
         <v>446</v>
       </c>
       <c r="F253" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G253" t="s">
         <v>1082</v>
       </c>
       <c r="H253" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I253" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11152,16 +11158,16 @@
         <v>446</v>
       </c>
       <c r="F254" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G254" t="s">
         <v>1083</v>
       </c>
       <c r="H254" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I254" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11178,16 +11184,16 @@
         <v>446</v>
       </c>
       <c r="F255" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G255" t="s">
         <v>1083</v>
       </c>
       <c r="H255" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I255" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11204,16 +11210,16 @@
         <v>446</v>
       </c>
       <c r="F256" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G256" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H256" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I256" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11230,16 +11236,16 @@
         <v>446</v>
       </c>
       <c r="F257" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G257" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H257" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I257" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11256,16 +11262,16 @@
         <v>446</v>
       </c>
       <c r="F258" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G258" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H258" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I258" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11282,16 +11288,16 @@
         <v>446</v>
       </c>
       <c r="F259" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G259" t="s">
         <v>1084</v>
       </c>
       <c r="H259" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I259" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11308,16 +11314,16 @@
         <v>446</v>
       </c>
       <c r="F260" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G260" t="s">
         <v>1085</v>
       </c>
       <c r="H260" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="I260" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11334,16 +11340,16 @@
         <v>446</v>
       </c>
       <c r="F261" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G261" t="s">
         <v>1012</v>
       </c>
       <c r="H261" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I261" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11360,16 +11366,16 @@
         <v>446</v>
       </c>
       <c r="F262" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G262" t="s">
         <v>1086</v>
       </c>
       <c r="H262" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I262" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11386,16 +11392,16 @@
         <v>446</v>
       </c>
       <c r="F263" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G263" t="s">
         <v>1087</v>
       </c>
       <c r="H263" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I263" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11412,16 +11418,16 @@
         <v>446</v>
       </c>
       <c r="F264" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G264" t="s">
         <v>1088</v>
       </c>
       <c r="H264" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I264" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11438,16 +11444,16 @@
         <v>446</v>
       </c>
       <c r="F265" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G265" t="s">
         <v>1089</v>
       </c>
       <c r="H265" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I265" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11464,16 +11470,16 @@
         <v>446</v>
       </c>
       <c r="F266" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G266" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H266" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I266" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11490,16 +11496,16 @@
         <v>446</v>
       </c>
       <c r="F267" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G267" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H267" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I267" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11516,16 +11522,16 @@
         <v>446</v>
       </c>
       <c r="F268" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G268" t="s">
         <v>1090</v>
       </c>
       <c r="H268" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I268" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11542,16 +11548,16 @@
         <v>446</v>
       </c>
       <c r="F269" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G269" t="s">
         <v>1091</v>
       </c>
       <c r="H269" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="I269" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11568,16 +11574,16 @@
         <v>446</v>
       </c>
       <c r="F270" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G270" t="s">
         <v>1092</v>
       </c>
       <c r="H270" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I270" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11594,16 +11600,16 @@
         <v>446</v>
       </c>
       <c r="F271" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G271" t="s">
         <v>1093</v>
       </c>
       <c r="H271" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I271" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11620,16 +11626,16 @@
         <v>446</v>
       </c>
       <c r="F272" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G272" t="s">
         <v>1094</v>
       </c>
       <c r="H272" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I272" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11646,16 +11652,16 @@
         <v>446</v>
       </c>
       <c r="F273" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G273" t="s">
         <v>1095</v>
       </c>
       <c r="H273" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I273" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11672,16 +11678,16 @@
         <v>446</v>
       </c>
       <c r="F274" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G274" t="s">
         <v>1096</v>
       </c>
       <c r="H274" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="I274" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11698,16 +11704,16 @@
         <v>446</v>
       </c>
       <c r="F275" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G275" t="s">
         <v>1097</v>
       </c>
       <c r="H275" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I275" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11724,16 +11730,16 @@
         <v>446</v>
       </c>
       <c r="F276" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G276" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H276" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I276" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11750,16 +11756,16 @@
         <v>446</v>
       </c>
       <c r="F277" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G277" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H277" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="I277" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11776,16 +11782,16 @@
         <v>446</v>
       </c>
       <c r="F278" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G278" t="s">
         <v>1098</v>
       </c>
       <c r="H278" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="I278" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11802,16 +11808,16 @@
         <v>446</v>
       </c>
       <c r="F279" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G279" t="s">
         <v>1099</v>
       </c>
       <c r="H279" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I279" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11828,16 +11834,16 @@
         <v>446</v>
       </c>
       <c r="F280" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G280" t="s">
         <v>1100</v>
       </c>
       <c r="H280" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I280" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11854,16 +11860,16 @@
         <v>446</v>
       </c>
       <c r="F281" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G281" t="s">
         <v>1101</v>
       </c>
       <c r="H281" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I281" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11880,16 +11886,16 @@
         <v>446</v>
       </c>
       <c r="F282" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G282" t="s">
         <v>1102</v>
       </c>
       <c r="H282" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I282" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11909,16 +11915,16 @@
         <v>446</v>
       </c>
       <c r="F283" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G283" t="s">
         <v>1103</v>
       </c>
       <c r="H283" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I283" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11935,16 +11941,16 @@
         <v>446</v>
       </c>
       <c r="F284" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G284" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H284" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I284" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11961,16 +11967,16 @@
         <v>446</v>
       </c>
       <c r="F285" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G285" t="s">
         <v>1104</v>
       </c>
       <c r="H285" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="I285" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11987,16 +11993,16 @@
         <v>446</v>
       </c>
       <c r="F286" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G286" t="s">
         <v>1105</v>
       </c>
       <c r="H286" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="I286" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12013,16 +12019,16 @@
         <v>446</v>
       </c>
       <c r="F287" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G287" t="s">
         <v>1106</v>
       </c>
       <c r="H287" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="I287" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12039,16 +12045,16 @@
         <v>446</v>
       </c>
       <c r="F288" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G288" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H288" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="I288" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12065,16 +12071,16 @@
         <v>446</v>
       </c>
       <c r="F289" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G289" t="s">
         <v>1107</v>
       </c>
       <c r="H289" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I289" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12091,16 +12097,16 @@
         <v>446</v>
       </c>
       <c r="F290" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G290" t="s">
         <v>1108</v>
       </c>
       <c r="H290" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I290" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12117,16 +12123,16 @@
         <v>446</v>
       </c>
       <c r="F291" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G291" t="s">
         <v>1109</v>
       </c>
       <c r="H291" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I291" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12143,16 +12149,16 @@
         <v>446</v>
       </c>
       <c r="F292" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G292" t="s">
         <v>1110</v>
       </c>
       <c r="H292" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I292" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12169,16 +12175,16 @@
         <v>446</v>
       </c>
       <c r="F293" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G293" t="s">
         <v>1089</v>
       </c>
       <c r="H293" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I293" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12195,16 +12201,16 @@
         <v>446</v>
       </c>
       <c r="F294" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G294" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H294" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I294" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12221,16 +12227,16 @@
         <v>446</v>
       </c>
       <c r="F295" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G295" t="s">
         <v>1111</v>
       </c>
       <c r="H295" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I295" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12247,16 +12253,16 @@
         <v>446</v>
       </c>
       <c r="F296" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G296" t="s">
         <v>1112</v>
       </c>
       <c r="H296" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I296" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12273,16 +12279,16 @@
         <v>446</v>
       </c>
       <c r="F297" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G297" t="s">
         <v>1113</v>
       </c>
       <c r="H297" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I297" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12299,16 +12305,16 @@
         <v>446</v>
       </c>
       <c r="F298" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G298" t="s">
         <v>1061</v>
       </c>
       <c r="H298" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I298" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12325,16 +12331,16 @@
         <v>446</v>
       </c>
       <c r="F299" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G299" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H299" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="I299" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12351,16 +12357,16 @@
         <v>446</v>
       </c>
       <c r="F300" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G300" t="s">
         <v>1012</v>
       </c>
       <c r="H300" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I300" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12377,16 +12383,16 @@
         <v>446</v>
       </c>
       <c r="F301" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G301" t="s">
         <v>1114</v>
       </c>
       <c r="H301" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I301" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12403,16 +12409,16 @@
         <v>446</v>
       </c>
       <c r="F302" t="s">
-        <v>745</v>
+        <v>1358</v>
       </c>
       <c r="G302" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H302" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I302" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12435,10 +12441,10 @@
         <v>1115</v>
       </c>
       <c r="H303" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I303" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12461,10 +12467,10 @@
         <v>1116</v>
       </c>
       <c r="H304" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="I304" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12481,16 +12487,16 @@
         <v>446</v>
       </c>
       <c r="F305" t="s">
-        <v>748</v>
+        <v>1359</v>
       </c>
       <c r="G305" t="s">
         <v>1117</v>
       </c>
       <c r="H305" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I305" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12507,16 +12513,16 @@
         <v>446</v>
       </c>
       <c r="F306" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G306" t="s">
         <v>1118</v>
       </c>
       <c r="H306" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I306" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12533,16 +12539,16 @@
         <v>446</v>
       </c>
       <c r="F307" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G307" t="s">
         <v>1119</v>
       </c>
       <c r="H307" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I307" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12559,16 +12565,16 @@
         <v>446</v>
       </c>
       <c r="F308" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G308" t="s">
         <v>1103</v>
       </c>
       <c r="H308" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I308" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12585,16 +12591,16 @@
         <v>446</v>
       </c>
       <c r="F309" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G309" t="s">
         <v>1120</v>
       </c>
       <c r="H309" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I309" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12611,16 +12617,16 @@
         <v>446</v>
       </c>
       <c r="F310" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G310" t="s">
         <v>1121</v>
       </c>
       <c r="H310" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I310" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12637,16 +12643,16 @@
         <v>446</v>
       </c>
       <c r="F311" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G311" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H311" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I311" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12663,16 +12669,16 @@
         <v>446</v>
       </c>
       <c r="F312" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G312" t="s">
         <v>1122</v>
       </c>
       <c r="H312" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I312" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12689,16 +12695,16 @@
         <v>446</v>
       </c>
       <c r="F313" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G313" t="s">
         <v>1123</v>
       </c>
       <c r="H313" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I313" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12715,16 +12721,16 @@
         <v>446</v>
       </c>
       <c r="F314" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G314" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H314" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I314" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12741,16 +12747,16 @@
         <v>446</v>
       </c>
       <c r="F315" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G315" t="s">
         <v>1124</v>
       </c>
       <c r="H315" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I315" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12767,16 +12773,16 @@
         <v>446</v>
       </c>
       <c r="F316" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G316" t="s">
         <v>1125</v>
       </c>
       <c r="H316" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I316" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12793,16 +12799,16 @@
         <v>446</v>
       </c>
       <c r="F317" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G317" t="s">
         <v>1089</v>
       </c>
       <c r="H317" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I317" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12819,16 +12825,16 @@
         <v>446</v>
       </c>
       <c r="F318" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G318" t="s">
         <v>1126</v>
       </c>
       <c r="H318" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I318" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12845,16 +12851,16 @@
         <v>446</v>
       </c>
       <c r="F319" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G319" t="s">
         <v>1127</v>
       </c>
       <c r="H319" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I319" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12871,16 +12877,16 @@
         <v>446</v>
       </c>
       <c r="F320" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G320" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H320" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I320" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12897,16 +12903,16 @@
         <v>446</v>
       </c>
       <c r="F321" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G321" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H321" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="I321" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12923,16 +12929,16 @@
         <v>446</v>
       </c>
       <c r="F322" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G322" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H322" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I322" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12949,16 +12955,16 @@
         <v>446</v>
       </c>
       <c r="F323" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G323" t="s">
         <v>1128</v>
       </c>
       <c r="H323" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="I323" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12975,16 +12981,16 @@
         <v>446</v>
       </c>
       <c r="F324" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G324" t="s">
         <v>1129</v>
       </c>
       <c r="H324" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="I324" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13004,16 +13010,16 @@
         <v>446</v>
       </c>
       <c r="F325" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G325" t="s">
         <v>1130</v>
       </c>
       <c r="H325" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="I325" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13030,16 +13036,16 @@
         <v>446</v>
       </c>
       <c r="F326" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G326" t="s">
         <v>1131</v>
       </c>
       <c r="H326" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I326" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13056,16 +13062,16 @@
         <v>446</v>
       </c>
       <c r="F327" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G327" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H327" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I327" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13082,16 +13088,16 @@
         <v>446</v>
       </c>
       <c r="F328" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G328" t="s">
         <v>1132</v>
       </c>
       <c r="H328" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I328" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13108,16 +13114,16 @@
         <v>446</v>
       </c>
       <c r="F329" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G329" t="s">
         <v>1133</v>
       </c>
       <c r="H329" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="I329" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13134,16 +13140,16 @@
         <v>446</v>
       </c>
       <c r="F330" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G330" t="s">
         <v>1134</v>
       </c>
       <c r="H330" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I330" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13160,16 +13166,16 @@
         <v>446</v>
       </c>
       <c r="F331" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G331" t="s">
         <v>1135</v>
       </c>
       <c r="H331" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="I331" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13186,16 +13192,16 @@
         <v>446</v>
       </c>
       <c r="F332" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G332" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H332" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I332" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13212,16 +13218,16 @@
         <v>446</v>
       </c>
       <c r="F333" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G333" t="s">
         <v>1136</v>
       </c>
       <c r="H333" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I333" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13238,16 +13244,16 @@
         <v>446</v>
       </c>
       <c r="F334" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G334" t="s">
         <v>1137</v>
       </c>
       <c r="H334" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I334" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13264,16 +13270,16 @@
         <v>446</v>
       </c>
       <c r="F335" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G335" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H335" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="I335" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13290,16 +13296,16 @@
         <v>446</v>
       </c>
       <c r="F336" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G336" t="s">
         <v>1138</v>
       </c>
       <c r="H336" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="I336" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13316,16 +13322,16 @@
         <v>446</v>
       </c>
       <c r="F337" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G337" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H337" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I337" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13342,16 +13348,16 @@
         <v>446</v>
       </c>
       <c r="F338" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G338" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H338" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I338" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13368,16 +13374,16 @@
         <v>446</v>
       </c>
       <c r="F339" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G339" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H339" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I339" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13397,16 +13403,16 @@
         <v>446</v>
       </c>
       <c r="F340" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G340" t="s">
         <v>1131</v>
       </c>
       <c r="H340" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I340" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13426,16 +13432,16 @@
         <v>446</v>
       </c>
       <c r="F341" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G341" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H341" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I341" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13452,16 +13458,16 @@
         <v>446</v>
       </c>
       <c r="F342" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G342" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H342" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I342" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13478,16 +13484,16 @@
         <v>446</v>
       </c>
       <c r="F343" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G343" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H343" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I343" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13504,16 +13510,16 @@
         <v>446</v>
       </c>
       <c r="F344" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G344" t="s">
         <v>1139</v>
       </c>
       <c r="H344" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I344" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13530,16 +13536,16 @@
         <v>446</v>
       </c>
       <c r="F345" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G345" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H345" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I345" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13556,16 +13562,16 @@
         <v>447</v>
       </c>
       <c r="F346" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G346" t="s">
         <v>1140</v>
       </c>
       <c r="H346" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I346" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13582,16 +13588,16 @@
         <v>447</v>
       </c>
       <c r="F347" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G347" t="s">
         <v>1141</v>
       </c>
       <c r="H347" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I347" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13608,16 +13614,16 @@
         <v>447</v>
       </c>
       <c r="F348" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G348" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H348" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I348" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13634,16 +13640,16 @@
         <v>447</v>
       </c>
       <c r="F349" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G349" t="s">
         <v>1142</v>
       </c>
       <c r="H349" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I349" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13660,16 +13666,16 @@
         <v>447</v>
       </c>
       <c r="F350" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G350" t="s">
         <v>1143</v>
       </c>
       <c r="H350" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I350" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13686,16 +13692,16 @@
         <v>447</v>
       </c>
       <c r="F351" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G351" t="s">
         <v>1144</v>
       </c>
       <c r="H351" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I351" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13712,16 +13718,16 @@
         <v>447</v>
       </c>
       <c r="F352" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G352" t="s">
         <v>1018</v>
       </c>
       <c r="H352" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I352" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13738,16 +13744,16 @@
         <v>447</v>
       </c>
       <c r="F353" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G353" t="s">
         <v>1145</v>
       </c>
       <c r="H353" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I353" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13764,16 +13770,16 @@
         <v>447</v>
       </c>
       <c r="F354" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G354" t="s">
         <v>1146</v>
       </c>
       <c r="H354" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I354" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13790,16 +13796,16 @@
         <v>447</v>
       </c>
       <c r="F355" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G355" t="s">
         <v>1147</v>
       </c>
       <c r="H355" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I355" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13816,16 +13822,16 @@
         <v>447</v>
       </c>
       <c r="F356" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G356" t="s">
         <v>1148</v>
       </c>
       <c r="H356" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I356" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13842,16 +13848,16 @@
         <v>447</v>
       </c>
       <c r="F357" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G357" t="s">
         <v>1149</v>
       </c>
       <c r="H357" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I357" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13871,16 +13877,16 @@
         <v>447</v>
       </c>
       <c r="F358" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G358" t="s">
         <v>1150</v>
       </c>
       <c r="H358" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I358" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13897,16 +13903,16 @@
         <v>447</v>
       </c>
       <c r="F359" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G359" t="s">
         <v>1151</v>
       </c>
       <c r="H359" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I359" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -13923,16 +13929,16 @@
         <v>447</v>
       </c>
       <c r="F360" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G360" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H360" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I360" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13949,16 +13955,16 @@
         <v>447</v>
       </c>
       <c r="F361" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G361" t="s">
         <v>1152</v>
       </c>
       <c r="H361" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I361" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13975,16 +13981,16 @@
         <v>447</v>
       </c>
       <c r="F362" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G362" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H362" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I362" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -14001,22 +14007,22 @@
         <v>447</v>
       </c>
       <c r="F363" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G363" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H363" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I363" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="K363" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L363" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14033,16 +14039,16 @@
         <v>447</v>
       </c>
       <c r="F364" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G364" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H364" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I364" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14059,16 +14065,16 @@
         <v>447</v>
       </c>
       <c r="F365" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G365" t="s">
         <v>1153</v>
       </c>
       <c r="H365" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I365" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14085,16 +14091,16 @@
         <v>447</v>
       </c>
       <c r="F366" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G366" t="s">
         <v>1154</v>
       </c>
       <c r="H366" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I366" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14111,16 +14117,16 @@
         <v>447</v>
       </c>
       <c r="F367" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G367" t="s">
         <v>1155</v>
       </c>
       <c r="H367" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I367" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14140,16 +14146,16 @@
         <v>447</v>
       </c>
       <c r="F368" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G368" t="s">
         <v>1156</v>
       </c>
       <c r="H368" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I368" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14166,16 +14172,16 @@
         <v>447</v>
       </c>
       <c r="F369" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G369" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H369" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I369" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14192,16 +14198,16 @@
         <v>447</v>
       </c>
       <c r="F370" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G370" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H370" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I370" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14218,16 +14224,16 @@
         <v>447</v>
       </c>
       <c r="F371" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G371" t="s">
         <v>1157</v>
       </c>
       <c r="H371" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I371" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14244,16 +14250,16 @@
         <v>447</v>
       </c>
       <c r="F372" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G372" t="s">
         <v>1158</v>
       </c>
       <c r="H372" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I372" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14270,16 +14276,16 @@
         <v>447</v>
       </c>
       <c r="F373" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G373" t="s">
         <v>1159</v>
       </c>
       <c r="H373" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I373" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14296,16 +14302,16 @@
         <v>447</v>
       </c>
       <c r="F374" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G374" t="s">
         <v>1160</v>
       </c>
       <c r="H374" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I374" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14322,16 +14328,16 @@
         <v>447</v>
       </c>
       <c r="F375" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G375" t="s">
         <v>1161</v>
       </c>
       <c r="H375" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I375" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14348,16 +14354,16 @@
         <v>447</v>
       </c>
       <c r="F376" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G376" t="s">
         <v>1162</v>
       </c>
       <c r="H376" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I376" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14374,16 +14380,16 @@
         <v>447</v>
       </c>
       <c r="F377" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G377" t="s">
         <v>1163</v>
       </c>
       <c r="H377" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I377" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14400,16 +14406,16 @@
         <v>447</v>
       </c>
       <c r="F378" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G378" t="s">
         <v>1164</v>
       </c>
       <c r="H378" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I378" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14426,16 +14432,16 @@
         <v>447</v>
       </c>
       <c r="F379" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G379" t="s">
         <v>1165</v>
       </c>
       <c r="H379" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I379" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14452,19 +14458,19 @@
         <v>447</v>
       </c>
       <c r="F380" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G380" t="s">
         <v>1166</v>
       </c>
       <c r="H380" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I380" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J380" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14481,19 +14487,19 @@
         <v>447</v>
       </c>
       <c r="F381" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G381" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H381" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I381" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J381" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14510,19 +14516,19 @@
         <v>447</v>
       </c>
       <c r="F382" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G382" t="s">
         <v>1167</v>
       </c>
       <c r="H382" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I382" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="J382" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14539,16 +14545,16 @@
         <v>447</v>
       </c>
       <c r="F383" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G383" t="s">
         <v>1168</v>
       </c>
       <c r="H383" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I383" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14565,16 +14571,16 @@
         <v>447</v>
       </c>
       <c r="F384" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G384" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H384" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I384" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14591,16 +14597,16 @@
         <v>447</v>
       </c>
       <c r="F385" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G385" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H385" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I385" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14620,16 +14626,16 @@
         <v>447</v>
       </c>
       <c r="F386" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G386" t="s">
         <v>1169</v>
       </c>
       <c r="H386" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I386" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14649,16 +14655,16 @@
         <v>447</v>
       </c>
       <c r="F387" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G387" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H387" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I387" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14675,16 +14681,16 @@
         <v>447</v>
       </c>
       <c r="F388" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G388" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H388" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I388" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14704,16 +14710,16 @@
         <v>447</v>
       </c>
       <c r="F389" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G389" t="s">
         <v>1170</v>
       </c>
       <c r="H389" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I389" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14733,16 +14739,16 @@
         <v>447</v>
       </c>
       <c r="F390" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G390" t="s">
         <v>1171</v>
       </c>
       <c r="H390" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I390" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14762,16 +14768,16 @@
         <v>447</v>
       </c>
       <c r="F391" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G391" t="s">
         <v>1172</v>
       </c>
       <c r="H391" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I391" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14791,16 +14797,16 @@
         <v>447</v>
       </c>
       <c r="F392" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G392" t="s">
         <v>1173</v>
       </c>
       <c r="H392" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I392" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14820,16 +14826,16 @@
         <v>447</v>
       </c>
       <c r="F393" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G393" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H393" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I393" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14849,13 +14855,13 @@
         <v>447</v>
       </c>
       <c r="F394" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H394" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I394" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14875,16 +14881,16 @@
         <v>447</v>
       </c>
       <c r="F395" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G395" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H395" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I395" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14901,16 +14907,16 @@
         <v>447</v>
       </c>
       <c r="F396" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G396" t="s">
         <v>1080</v>
       </c>
       <c r="H396" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I396" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -14927,16 +14933,16 @@
         <v>447</v>
       </c>
       <c r="F397" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G397" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H397" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I397" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -14953,16 +14959,16 @@
         <v>447</v>
       </c>
       <c r="F398" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G398" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H398" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I398" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -14979,16 +14985,16 @@
         <v>447</v>
       </c>
       <c r="F399" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G399" t="s">
         <v>1174</v>
       </c>
       <c r="H399" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I399" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15005,16 +15011,16 @@
         <v>447</v>
       </c>
       <c r="F400" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G400" t="s">
         <v>1175</v>
       </c>
       <c r="H400" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I400" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15031,16 +15037,16 @@
         <v>447</v>
       </c>
       <c r="F401" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G401" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H401" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I401" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15057,16 +15063,16 @@
         <v>447</v>
       </c>
       <c r="F402" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G402" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H402" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I402" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15083,16 +15089,16 @@
         <v>447</v>
       </c>
       <c r="F403" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G403" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H403" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I403" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15109,13 +15115,13 @@
         <v>447</v>
       </c>
       <c r="F404" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H404" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I404" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15132,16 +15138,16 @@
         <v>447</v>
       </c>
       <c r="F405" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G405" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H405" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="I405" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15158,16 +15164,16 @@
         <v>447</v>
       </c>
       <c r="F406" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G406" t="s">
         <v>1176</v>
       </c>
       <c r="H406" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="I406" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15184,16 +15190,16 @@
         <v>447</v>
       </c>
       <c r="F407" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G407" t="s">
         <v>1177</v>
       </c>
       <c r="H407" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="I407" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15210,16 +15216,16 @@
         <v>447</v>
       </c>
       <c r="F408" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G408" t="s">
         <v>1178</v>
       </c>
       <c r="H408" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="I408" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15236,16 +15242,16 @@
         <v>447</v>
       </c>
       <c r="F409" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G409" t="s">
         <v>1179</v>
       </c>
       <c r="H409" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="I409" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15262,16 +15268,16 @@
         <v>447</v>
       </c>
       <c r="F410" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G410" t="s">
         <v>1180</v>
       </c>
       <c r="H410" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="I410" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15288,16 +15294,16 @@
         <v>447</v>
       </c>
       <c r="F411" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G411" t="s">
         <v>1181</v>
       </c>
       <c r="H411" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="I411" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15314,16 +15320,16 @@
         <v>447</v>
       </c>
       <c r="F412" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G412" t="s">
         <v>1182</v>
       </c>
       <c r="H412" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I412" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15340,16 +15346,16 @@
         <v>447</v>
       </c>
       <c r="F413" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G413" t="s">
         <v>1183</v>
       </c>
       <c r="H413" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I413" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15366,16 +15372,16 @@
         <v>447</v>
       </c>
       <c r="F414" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G414" t="s">
         <v>1154</v>
       </c>
       <c r="H414" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I414" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15392,16 +15398,16 @@
         <v>447</v>
       </c>
       <c r="F415" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G415" t="s">
         <v>1184</v>
       </c>
       <c r="H415" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I415" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15418,16 +15424,16 @@
         <v>447</v>
       </c>
       <c r="F416" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G416" t="s">
         <v>1185</v>
       </c>
       <c r="H416" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I416" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15444,16 +15450,16 @@
         <v>447</v>
       </c>
       <c r="F417" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G417" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H417" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I417" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15470,16 +15476,16 @@
         <v>447</v>
       </c>
       <c r="F418" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G418" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H418" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I418" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15496,16 +15502,16 @@
         <v>447</v>
       </c>
       <c r="F419" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G419" t="s">
         <v>1105</v>
       </c>
       <c r="H419" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I419" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15522,16 +15528,16 @@
         <v>447</v>
       </c>
       <c r="F420" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G420" t="s">
         <v>1186</v>
       </c>
       <c r="H420" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I420" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15548,16 +15554,16 @@
         <v>447</v>
       </c>
       <c r="F421" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G421" t="s">
         <v>1187</v>
       </c>
       <c r="H421" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I421" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15577,7 +15583,7 @@
         <v>447</v>
       </c>
       <c r="F422" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G422" t="s">
         <v>1188</v>
@@ -15597,16 +15603,16 @@
         <v>447</v>
       </c>
       <c r="F423" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G423" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H423" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I423" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15623,16 +15629,16 @@
         <v>447</v>
       </c>
       <c r="F424" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G424" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H424" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I424" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -15649,16 +15655,16 @@
         <v>447</v>
       </c>
       <c r="F425" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G425" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H425" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I425" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -15675,16 +15681,16 @@
         <v>447</v>
       </c>
       <c r="F426" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G426" t="s">
         <v>1189</v>
       </c>
       <c r="H426" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I426" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -15701,16 +15707,16 @@
         <v>447</v>
       </c>
       <c r="F427" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G427" t="s">
         <v>1190</v>
       </c>
       <c r="H427" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I427" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -15727,16 +15733,16 @@
         <v>447</v>
       </c>
       <c r="F428" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G428" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H428" t="s">
-        <v>1307</v>
+        <v>1364</v>
       </c>
       <c r="I428" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -15753,16 +15759,16 @@
         <v>447</v>
       </c>
       <c r="F429" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G429" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H429" t="s">
-        <v>1307</v>
+        <v>1364</v>
       </c>
       <c r="I429" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -15779,16 +15785,16 @@
         <v>447</v>
       </c>
       <c r="F430" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G430" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H430" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I430" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -15805,16 +15811,16 @@
         <v>447</v>
       </c>
       <c r="F431" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G431" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H431" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I431" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -15831,16 +15837,16 @@
         <v>447</v>
       </c>
       <c r="F432" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G432" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H432" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I432" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -15857,16 +15863,16 @@
         <v>447</v>
       </c>
       <c r="F433" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G433" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H433" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I433" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -15883,16 +15889,16 @@
         <v>447</v>
       </c>
       <c r="F434" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G434" t="s">
         <v>1191</v>
       </c>
       <c r="H434" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I434" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -15909,16 +15915,16 @@
         <v>447</v>
       </c>
       <c r="F435" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G435" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H435" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I435" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -15935,16 +15941,16 @@
         <v>447</v>
       </c>
       <c r="F436" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G436" t="s">
         <v>1192</v>
       </c>
       <c r="H436" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I436" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -15961,16 +15967,16 @@
         <v>447</v>
       </c>
       <c r="F437" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G437" t="s">
         <v>1193</v>
       </c>
       <c r="H437" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I437" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -15987,19 +15993,20 @@
         <v>447</v>
       </c>
       <c r="F438" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G438" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H438" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I438" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>